--- a/excel/assignments/Assignment13a_Workbook.xlsx
+++ b/excel/assignments/Assignment13a_Workbook.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="9225"/>
   </bookViews>
   <sheets>
-    <sheet name="Fiction Book Sales" sheetId="2" r:id="rId1"/>
+    <sheet name="Buchverkäufe (Fiktion)" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -55,7 +55,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -97,7 +97,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -105,19 +105,19 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -440,15 +440,15 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
